--- a/downloaded_files/CMPS401_Lecture-35538.xlsx
+++ b/downloaded_files/CMPS401_Lecture-35538.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -175,15 +175,6 @@
   </x:si>
   <x:si>
     <x:t>Abdel Rahman Ayman Amin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210252</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالله احمد عارف محمود الدسوقي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AbdAllah Ahmad Aref Mahmoud AlDessoukey</x:t>
   </x:si>
   <x:si>
     <x:t>1220251</x:t>
@@ -542,7 +533,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -842,7 +833,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T45"/>
+  <x:dimension ref="A1:T44"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1445,7 +1436,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4143732986</x:v>
+        <x:v>45906.6646892361</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1477,7 +1468,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6646892361</x:v>
+        <x:v>45906.4146315625</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1509,7 +1500,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4146315625</x:v>
+        <x:v>45906.4146170486</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1541,7 +1532,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4146170486</x:v>
+        <x:v>45906.4192629282</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1573,7 +1564,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4192629282</x:v>
+        <x:v>45916.4504661227</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1605,7 +1596,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45916.4504661227</x:v>
+        <x:v>45906.4251809375</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1637,7 +1628,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4251809375</x:v>
+        <x:v>45913.7802143518</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1669,7 +1660,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45913.7802143518</x:v>
+        <x:v>45906.414346412</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1701,7 +1692,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.414346412</x:v>
+        <x:v>45916.4730354167</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1733,7 +1724,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45916.4730354167</x:v>
+        <x:v>45906.4163405093</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1765,7 +1756,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4163405093</x:v>
+        <x:v>45913.7578091782</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1797,7 +1788,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45913.7578091782</x:v>
+        <x:v>45909.5174795486</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1829,7 +1820,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.5174795486</x:v>
+        <x:v>45906.4174892361</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1861,7 +1852,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4174892361</x:v>
+        <x:v>45906.4143614583</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1893,7 +1884,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4143614583</x:v>
+        <x:v>45906.4143641551</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1925,7 +1916,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.4143641551</x:v>
+        <x:v>45906.4145188657</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1957,7 +1948,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.4145188657</x:v>
+        <x:v>45913.7673747685</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1989,7 +1980,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45913.7673747685</x:v>
+        <x:v>45913.7634871528</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2021,7 +2012,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45913.7634871528</x:v>
+        <x:v>45909.4151523958</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2053,7 +2044,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45909.4151523958</x:v>
+        <x:v>45906.4142854167</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2085,7 +2076,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.4142854167</x:v>
+        <x:v>45914.7085244213</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2117,7 +2108,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45914.7085244213</x:v>
+        <x:v>45909.4150782755</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2149,7 +2140,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45909.4150782755</x:v>
+        <x:v>45906.5758611111</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2181,7 +2172,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.5758611111</x:v>
+        <x:v>45906.6644244213</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2213,7 +2204,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.6644244213</x:v>
+        <x:v>45906.6651433681</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2245,7 +2236,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.6651433681</x:v>
+        <x:v>45916.0245447917</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2277,7 +2268,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45916.0245447917</x:v>
+        <x:v>45906.6651076736</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2294,38 +2285,6 @@
       <x:c r="R44" s="2" t="s"/>
       <x:c r="S44" s="2" t="s"/>
       <x:c r="T44" s="2" t="s"/>
-    </x:row>
-    <x:row r="45" spans="1:20">
-      <x:c r="A45" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B45" s="2" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="C45" s="2" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="D45" s="2" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="E45" s="3">
-        <x:v>45906.6651076736</x:v>
-      </x:c>
-      <x:c r="F45" s="2" t="s"/>
-      <x:c r="G45" s="2" t="s"/>
-      <x:c r="H45" s="2" t="s"/>
-      <x:c r="I45" s="2" t="s"/>
-      <x:c r="J45" s="2" t="s"/>
-      <x:c r="K45" s="2" t="s"/>
-      <x:c r="L45" s="2" t="s"/>
-      <x:c r="M45" s="2" t="s"/>
-      <x:c r="N45" s="2" t="s"/>
-      <x:c r="O45" s="2" t="s"/>
-      <x:c r="P45" s="2" t="s"/>
-      <x:c r="Q45" s="2" t="s"/>
-      <x:c r="R45" s="2" t="s"/>
-      <x:c r="S45" s="2" t="s"/>
-      <x:c r="T45" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS401_Lecture-35538.xlsx
+++ b/downloaded_files/CMPS401_Lecture-35538.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -328,15 +328,6 @@
   </x:si>
   <x:si>
     <x:t>Mostafa Ahmed Abdelfatah Elkorashy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210377</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مصطفي أسامة عبدالحميد توفيق عبد الحميد نصار</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mostafa Usama Abdelhameed Tawfeek Abdelhameed Nassar</x:t>
   </x:si>
   <x:si>
     <x:t>1210390</x:t>
@@ -533,7 +524,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -833,7 +824,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T44"/>
+  <x:dimension ref="A1:T43"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1980,7 +1971,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45913.7634871528</x:v>
+        <x:v>45909.4151523958</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2012,7 +2003,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45909.4151523958</x:v>
+        <x:v>45906.4142854167</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2044,7 +2035,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.4142854167</x:v>
+        <x:v>45914.7085244213</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2076,7 +2067,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45914.7085244213</x:v>
+        <x:v>45909.4150782755</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2108,7 +2099,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45909.4150782755</x:v>
+        <x:v>45906.5758611111</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2140,7 +2131,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.5758611111</x:v>
+        <x:v>45906.6644244213</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2172,7 +2163,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.6644244213</x:v>
+        <x:v>45906.6651433681</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2204,7 +2195,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.6651433681</x:v>
+        <x:v>45916.0245447917</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2236,7 +2227,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45916.0245447917</x:v>
+        <x:v>45906.6651076736</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2253,38 +2244,6 @@
       <x:c r="R43" s="2" t="s"/>
       <x:c r="S43" s="2" t="s"/>
       <x:c r="T43" s="2" t="s"/>
-    </x:row>
-    <x:row r="44" spans="1:20">
-      <x:c r="A44" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B44" s="2" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="C44" s="2" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="D44" s="2" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="E44" s="3">
-        <x:v>45906.6651076736</x:v>
-      </x:c>
-      <x:c r="F44" s="2" t="s"/>
-      <x:c r="G44" s="2" t="s"/>
-      <x:c r="H44" s="2" t="s"/>
-      <x:c r="I44" s="2" t="s"/>
-      <x:c r="J44" s="2" t="s"/>
-      <x:c r="K44" s="2" t="s"/>
-      <x:c r="L44" s="2" t="s"/>
-      <x:c r="M44" s="2" t="s"/>
-      <x:c r="N44" s="2" t="s"/>
-      <x:c r="O44" s="2" t="s"/>
-      <x:c r="P44" s="2" t="s"/>
-      <x:c r="Q44" s="2" t="s"/>
-      <x:c r="R44" s="2" t="s"/>
-      <x:c r="S44" s="2" t="s"/>
-      <x:c r="T44" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS401_Lecture-35538.xlsx
+++ b/downloaded_files/CMPS401_Lecture-35538.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -319,15 +319,6 @@
   </x:si>
   <x:si>
     <x:t>Mariam mahrous mohamed abdelaal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210306</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مصطفى أحمد عبدالفتاح القرشي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mostafa Ahmed Abdelfatah Elkorashy</x:t>
   </x:si>
   <x:si>
     <x:t>1210390</x:t>
@@ -524,7 +515,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -824,7 +815,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T43"/>
+  <x:dimension ref="A1:T42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1939,7 +1930,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45913.7673747685</x:v>
+        <x:v>45909.4151523958</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1971,7 +1962,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45909.4151523958</x:v>
+        <x:v>45906.4142854167</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2003,7 +1994,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.4142854167</x:v>
+        <x:v>45914.7085244213</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2035,7 +2026,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45914.7085244213</x:v>
+        <x:v>45909.4150782755</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2067,7 +2058,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45909.4150782755</x:v>
+        <x:v>45906.5758611111</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2099,7 +2090,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.5758611111</x:v>
+        <x:v>45906.6644244213</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2131,7 +2122,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.6644244213</x:v>
+        <x:v>45906.6651433681</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2163,7 +2154,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.6651433681</x:v>
+        <x:v>45916.0245447917</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2195,7 +2186,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45916.0245447917</x:v>
+        <x:v>45906.6651076736</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2212,38 +2203,6 @@
       <x:c r="R42" s="2" t="s"/>
       <x:c r="S42" s="2" t="s"/>
       <x:c r="T42" s="2" t="s"/>
-    </x:row>
-    <x:row r="43" spans="1:20">
-      <x:c r="A43" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B43" s="2" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="C43" s="2" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="D43" s="2" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="E43" s="3">
-        <x:v>45906.6651076736</x:v>
-      </x:c>
-      <x:c r="F43" s="2" t="s"/>
-      <x:c r="G43" s="2" t="s"/>
-      <x:c r="H43" s="2" t="s"/>
-      <x:c r="I43" s="2" t="s"/>
-      <x:c r="J43" s="2" t="s"/>
-      <x:c r="K43" s="2" t="s"/>
-      <x:c r="L43" s="2" t="s"/>
-      <x:c r="M43" s="2" t="s"/>
-      <x:c r="N43" s="2" t="s"/>
-      <x:c r="O43" s="2" t="s"/>
-      <x:c r="P43" s="2" t="s"/>
-      <x:c r="Q43" s="2" t="s"/>
-      <x:c r="R43" s="2" t="s"/>
-      <x:c r="S43" s="2" t="s"/>
-      <x:c r="T43" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS401_Lecture-35538.xlsx
+++ b/downloaded_files/CMPS401_Lecture-35538.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -123,15 +123,6 @@
     <x:t>Saja Ahmed Nabeel Mohammed Elsaeed</x:t>
   </x:si>
   <x:si>
-    <x:t>1210238</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سلمى ناصر عبدالوهاب الحسيني</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salma Nasser Abdelwahab Elhosseiny</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220246</x:t>
   </x:si>
   <x:si>
@@ -193,15 +184,6 @@
   </x:si>
   <x:si>
     <x:t>Abdullah Haytham Mohamed Salah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210016</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عزالدين احمد صابر الطهرى سليم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ezz Eldin Ahmed Saber Eltohary Selim</x:t>
   </x:si>
   <x:si>
     <x:t>4220139</x:t>
@@ -515,7 +497,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -815,7 +797,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T42"/>
+  <x:dimension ref="A1:T40"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1226,7 +1208,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6648877315</x:v>
+        <x:v>45913.6392454051</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1258,7 +1240,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45913.6392454051</x:v>
+        <x:v>45906.4143372338</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1290,7 +1272,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4143372338</x:v>
+        <x:v>45913.7490788542</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1322,7 +1304,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45913.7490788542</x:v>
+        <x:v>45906.6644613079</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1354,7 +1336,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6644613079</x:v>
+        <x:v>45906.4160912384</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1386,7 +1368,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4160912384</x:v>
+        <x:v>45906.6646892361</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1418,7 +1400,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6646892361</x:v>
+        <x:v>45906.4146315625</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1450,7 +1432,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4146315625</x:v>
+        <x:v>45906.4192629282</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1482,7 +1464,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4146170486</x:v>
+        <x:v>45916.4504661227</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1514,7 +1496,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4192629282</x:v>
+        <x:v>45906.4251809375</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1546,7 +1528,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45916.4504661227</x:v>
+        <x:v>45913.7802143518</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1578,7 +1560,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4251809375</x:v>
+        <x:v>45906.414346412</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1610,7 +1592,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45913.7802143518</x:v>
+        <x:v>45916.4730354167</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1642,7 +1624,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.414346412</x:v>
+        <x:v>45906.4163405093</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1674,7 +1656,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45916.4730354167</x:v>
+        <x:v>45913.7578091782</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1706,7 +1688,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4163405093</x:v>
+        <x:v>45909.5174795486</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1738,7 +1720,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45913.7578091782</x:v>
+        <x:v>45906.4174892361</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1770,7 +1752,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.5174795486</x:v>
+        <x:v>45906.4143614583</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1802,7 +1784,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4174892361</x:v>
+        <x:v>45906.4143641551</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1834,7 +1816,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4143614583</x:v>
+        <x:v>45906.4145188657</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1866,7 +1848,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4143641551</x:v>
+        <x:v>45909.4151523958</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1898,7 +1880,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.4145188657</x:v>
+        <x:v>45906.4142854167</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1930,7 +1912,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45909.4151523958</x:v>
+        <x:v>45914.7085244213</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1962,7 +1944,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.4142854167</x:v>
+        <x:v>45909.4150782755</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1994,7 +1976,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45914.7085244213</x:v>
+        <x:v>45906.5758611111</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2026,7 +2008,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45909.4150782755</x:v>
+        <x:v>45906.6644244213</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2058,7 +2040,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.5758611111</x:v>
+        <x:v>45906.6651433681</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2090,7 +2072,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.6644244213</x:v>
+        <x:v>45916.0245447917</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2122,7 +2104,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.6651433681</x:v>
+        <x:v>45906.6651076736</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2139,70 +2121,6 @@
       <x:c r="R40" s="2" t="s"/>
       <x:c r="S40" s="2" t="s"/>
       <x:c r="T40" s="2" t="s"/>
-    </x:row>
-    <x:row r="41" spans="1:20">
-      <x:c r="A41" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B41" s="2" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="C41" s="2" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="D41" s="2" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="E41" s="3">
-        <x:v>45916.0245447917</x:v>
-      </x:c>
-      <x:c r="F41" s="2" t="s"/>
-      <x:c r="G41" s="2" t="s"/>
-      <x:c r="H41" s="2" t="s"/>
-      <x:c r="I41" s="2" t="s"/>
-      <x:c r="J41" s="2" t="s"/>
-      <x:c r="K41" s="2" t="s"/>
-      <x:c r="L41" s="2" t="s"/>
-      <x:c r="M41" s="2" t="s"/>
-      <x:c r="N41" s="2" t="s"/>
-      <x:c r="O41" s="2" t="s"/>
-      <x:c r="P41" s="2" t="s"/>
-      <x:c r="Q41" s="2" t="s"/>
-      <x:c r="R41" s="2" t="s"/>
-      <x:c r="S41" s="2" t="s"/>
-      <x:c r="T41" s="2" t="s"/>
-    </x:row>
-    <x:row r="42" spans="1:20">
-      <x:c r="A42" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B42" s="2" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="C42" s="2" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="D42" s="2" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="E42" s="3">
-        <x:v>45906.6651076736</x:v>
-      </x:c>
-      <x:c r="F42" s="2" t="s"/>
-      <x:c r="G42" s="2" t="s"/>
-      <x:c r="H42" s="2" t="s"/>
-      <x:c r="I42" s="2" t="s"/>
-      <x:c r="J42" s="2" t="s"/>
-      <x:c r="K42" s="2" t="s"/>
-      <x:c r="L42" s="2" t="s"/>
-      <x:c r="M42" s="2" t="s"/>
-      <x:c r="N42" s="2" t="s"/>
-      <x:c r="O42" s="2" t="s"/>
-      <x:c r="P42" s="2" t="s"/>
-      <x:c r="Q42" s="2" t="s"/>
-      <x:c r="R42" s="2" t="s"/>
-      <x:c r="S42" s="2" t="s"/>
-      <x:c r="T42" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS401_Lecture-35538.xlsx
+++ b/downloaded_files/CMPS401_Lecture-35538.xlsx
@@ -249,15 +249,6 @@
     <x:t>Mohamed Maher Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1210416</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد ممدوح سيد محمد السمرى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Mamdouh Sayed Mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210291</x:t>
   </x:si>
   <x:si>
@@ -337,6 +328,15 @@
   </x:si>
   <x:si>
     <x:t>Nada Abdallah Mahmoud el said</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220145</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور الدين حسن حامد محمد خلف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nour Eldin Hassan Hamed Khalaf</x:t>
   </x:si>
   <x:si>
     <x:t>1210330</x:t>
@@ -1656,7 +1656,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45913.7578091782</x:v>
+        <x:v>45909.5174795486</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1688,7 +1688,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.5174795486</x:v>
+        <x:v>45906.4174892361</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1720,7 +1720,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4174892361</x:v>
+        <x:v>45906.4143614583</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1752,7 +1752,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4143614583</x:v>
+        <x:v>45906.4143641551</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1784,7 +1784,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4143641551</x:v>
+        <x:v>45906.4145188657</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1816,7 +1816,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4145188657</x:v>
+        <x:v>45909.4151523958</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1848,7 +1848,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.4151523958</x:v>
+        <x:v>45906.4142854167</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1880,7 +1880,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.4142854167</x:v>
+        <x:v>45914.7085244213</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1912,7 +1912,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45914.7085244213</x:v>
+        <x:v>45909.4150782755</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1944,7 +1944,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45909.4150782755</x:v>
+        <x:v>45928.5502585648</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>

--- a/downloaded_files/CMPS401_Lecture-35538.xlsx
+++ b/downloaded_files/CMPS401_Lecture-35538.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -274,15 +274,6 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud Mohammed Mounir Loutfy Mohammed Abdel-Moniem Loutfy Loutfy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210299</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مروان محمد صلاح الدين امام</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marwan Mohamed Salah Eldin Emam</x:t>
   </x:si>
   <x:si>
     <x:t>1210301</x:t>
@@ -497,7 +488,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -797,7 +788,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T40"/>
+  <x:dimension ref="A1:T39"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1752,7 +1743,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4143641551</x:v>
+        <x:v>45906.4145188657</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1784,7 +1775,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4145188657</x:v>
+        <x:v>45909.4151523958</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1816,7 +1807,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.4151523958</x:v>
+        <x:v>45906.4142854167</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1848,7 +1839,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4142854167</x:v>
+        <x:v>45914.7085244213</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1880,7 +1871,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45914.7085244213</x:v>
+        <x:v>45909.4150782755</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1912,7 +1903,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45909.4150782755</x:v>
+        <x:v>45928.5502585648</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1944,7 +1935,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45928.5502585648</x:v>
+        <x:v>45906.5758611111</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1976,7 +1967,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.5758611111</x:v>
+        <x:v>45906.6644244213</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2008,7 +1999,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.6644244213</x:v>
+        <x:v>45906.6651433681</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2040,7 +2031,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.6651433681</x:v>
+        <x:v>45916.0245447917</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2072,7 +2063,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45916.0245447917</x:v>
+        <x:v>45906.6651076736</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2089,38 +2080,6 @@
       <x:c r="R39" s="2" t="s"/>
       <x:c r="S39" s="2" t="s"/>
       <x:c r="T39" s="2" t="s"/>
-    </x:row>
-    <x:row r="40" spans="1:20">
-      <x:c r="A40" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B40" s="2" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="C40" s="2" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="D40" s="2" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="E40" s="3">
-        <x:v>45906.6651076736</x:v>
-      </x:c>
-      <x:c r="F40" s="2" t="s"/>
-      <x:c r="G40" s="2" t="s"/>
-      <x:c r="H40" s="2" t="s"/>
-      <x:c r="I40" s="2" t="s"/>
-      <x:c r="J40" s="2" t="s"/>
-      <x:c r="K40" s="2" t="s"/>
-      <x:c r="L40" s="2" t="s"/>
-      <x:c r="M40" s="2" t="s"/>
-      <x:c r="N40" s="2" t="s"/>
-      <x:c r="O40" s="2" t="s"/>
-      <x:c r="P40" s="2" t="s"/>
-      <x:c r="Q40" s="2" t="s"/>
-      <x:c r="R40" s="2" t="s"/>
-      <x:c r="S40" s="2" t="s"/>
-      <x:c r="T40" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS401_Lecture-35538.xlsx
+++ b/downloaded_files/CMPS401_Lecture-35538.xlsx
@@ -129,7 +129,7 @@
     <x:t>سيف الدين سامح عبدالرحمن صادق دكروري</x:t>
   </x:si>
   <x:si>
-    <x:t>Seifeldin Sameh Abdelrahman Dakroury</x:t>
+    <x:t>SEIFELDIN SAMEH ABDELRAHMAN SADEQ DAKROURY</x:t>
   </x:si>
   <x:si>
     <x:t>1210013</x:t>

--- a/downloaded_files/CMPS401_Lecture-35538.xlsx
+++ b/downloaded_files/CMPS401_Lecture-35538.xlsx
@@ -39,7 +39,7 @@
     <x:t>احمد سامح صلاح مصيلحى</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Sameh Salah</x:t>
+    <x:t>Ahmed Sameh Salah Moselhi</x:t>
   </x:si>
   <x:si>
     <x:t>1210194</x:t>
@@ -237,7 +237,7 @@
     <x:t>محمد اشرف محمد كرم الله</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohamed Ashraf Mohamed</x:t>
+    <x:t>Mohamed Ashraf Mohamed Karam Allah</x:t>
   </x:si>
   <x:si>
     <x:t>4220140</x:t>

--- a/downloaded_files/CMPS401_Lecture-35538.xlsx
+++ b/downloaded_files/CMPS401_Lecture-35538.xlsx
@@ -129,7 +129,7 @@
     <x:t>سيف الدين سامح عبدالرحمن صادق دكروري</x:t>
   </x:si>
   <x:si>
-    <x:t>SEIFELDIN SAMEH ABDELRAHMAN SADEQ DAKROURY</x:t>
+    <x:t>SEIFELDIN SAMEH ABDELRAHMAN SADEK DAKROURY</x:t>
   </x:si>
   <x:si>
     <x:t>1210013</x:t>

--- a/downloaded_files/CMPS401_Lecture-35538.xlsx
+++ b/downloaded_files/CMPS401_Lecture-35538.xlsx
@@ -201,7 +201,7 @@
     <x:t>عمرو اشرف على محمود حسن</x:t>
   </x:si>
   <x:si>
-    <x:t>AmrAshrafAli</x:t>
+    <x:t>Amr Ashraf Ali Mahmoud Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>4220131</x:t>
